--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2143436666666667</v>
+        <v>0.1930666666666666</v>
       </c>
       <c r="H2">
-        <v>0.643031</v>
+        <v>0.5791999999999999</v>
       </c>
       <c r="I2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="J2">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,27 +558,27 @@
         <v>0.363457</v>
       </c>
       <c r="O2">
-        <v>0.6524744903454665</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6524744903454665</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.02596823535188889</v>
+        <v>0.02339047715555555</v>
       </c>
       <c r="R2">
-        <v>0.233714118167</v>
+        <v>0.2105142944</v>
       </c>
       <c r="S2">
-        <v>0.01494318906370209</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="T2">
-        <v>0.01494318906370209</v>
+        <v>0.01292026122037801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2143436666666667</v>
+        <v>0.666149</v>
       </c>
       <c r="H3">
-        <v>0.643031</v>
+        <v>1.998447</v>
       </c>
       <c r="I3">
-        <v>0.02290233455071953</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J3">
-        <v>0.02290233455071953</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06452899999999999</v>
+        <v>0.1211523333333333</v>
       </c>
       <c r="N3">
-        <v>0.193587</v>
+        <v>0.363457</v>
       </c>
       <c r="O3">
-        <v>0.3475255096545335</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3475255096545335</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01383138246633333</v>
+        <v>0.08070550569766667</v>
       </c>
       <c r="R3">
-        <v>0.124482442197</v>
+        <v>0.7263495512790001</v>
       </c>
       <c r="S3">
-        <v>0.007959145487017436</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="T3">
-        <v>0.007959145487017438</v>
+        <v>0.04457951877603725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.666149</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H4">
-        <v>1.998447</v>
+        <v>42.251168</v>
       </c>
       <c r="I4">
-        <v>0.07117713108058832</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J4">
-        <v>0.07117713108058832</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,208 +682,22 @@
         <v>0.363457</v>
       </c>
       <c r="O4">
-        <v>0.6524744903454665</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6524744903454665</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.08070550569766667</v>
+        <v>1.706275863086222</v>
       </c>
       <c r="R4">
-        <v>0.7263495512790001</v>
+        <v>15.356482767776</v>
       </c>
       <c r="S4">
-        <v>0.04644126232605932</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="T4">
-        <v>0.04644126232605932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.666149</v>
-      </c>
-      <c r="H5">
-        <v>1.998447</v>
-      </c>
-      <c r="I5">
-        <v>0.07117713108058832</v>
-      </c>
-      <c r="J5">
-        <v>0.07117713108058832</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.06452899999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.193587</v>
-      </c>
-      <c r="O5">
-        <v>0.3475255096545335</v>
-      </c>
-      <c r="P5">
-        <v>0.3475255096545335</v>
-      </c>
-      <c r="Q5">
-        <v>0.04298592882099999</v>
-      </c>
-      <c r="R5">
-        <v>0.386873359389</v>
-      </c>
-      <c r="S5">
-        <v>0.02473586875452899</v>
-      </c>
-      <c r="T5">
-        <v>0.024735868754529</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>8.478538666666667</v>
-      </c>
-      <c r="H6">
-        <v>25.435616</v>
-      </c>
-      <c r="I6">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="J6">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.1211523333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.363457</v>
-      </c>
-      <c r="O6">
-        <v>0.6524744903454665</v>
-      </c>
-      <c r="P6">
-        <v>0.6524744903454665</v>
-      </c>
-      <c r="Q6">
-        <v>1.027194742723556</v>
-      </c>
-      <c r="R6">
-        <v>9.244752684512003</v>
-      </c>
-      <c r="S6">
-        <v>0.591090038955705</v>
-      </c>
-      <c r="T6">
-        <v>0.591090038955705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>8.478538666666667</v>
-      </c>
-      <c r="H7">
-        <v>25.435616</v>
-      </c>
-      <c r="I7">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="J7">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.06452899999999999</v>
-      </c>
-      <c r="N7">
-        <v>0.193587</v>
-      </c>
-      <c r="O7">
-        <v>0.3475255096545335</v>
-      </c>
-      <c r="P7">
-        <v>0.3475255096545335</v>
-      </c>
-      <c r="Q7">
-        <v>0.5471116216213333</v>
-      </c>
-      <c r="R7">
-        <v>4.924004594592</v>
-      </c>
-      <c r="S7">
-        <v>0.3148304954129871</v>
-      </c>
-      <c r="T7">
-        <v>0.3148304954129871</v>
+        <v>0.9425002200035848</v>
       </c>
     </row>
   </sheetData>
